--- a/Excels/CD.xlsx
+++ b/Excels/CD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="1013">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2969,12 +2969,6 @@
   </si>
   <si>
     <t>SmFuQDIwMjE</t>
-  </si>
-  <si>
-    <t>Tm90ZXBhZEAxMjM</t>
-  </si>
-  <si>
-    <t>QWFpcnRlbEAxOTE4</t>
   </si>
   <si>
     <t>Prod Customer Number</t>
@@ -3072,6 +3066,24 @@
   </si>
   <si>
     <t>Test Data-PROD</t>
+  </si>
+  <si>
+    <t>QWFpcnRlQDA5MDU</t>
+  </si>
+  <si>
+    <t>RGVhdGhub3RlQDEyMw</t>
+  </si>
+  <si>
+    <t>334705780</t>
+  </si>
+  <si>
+    <t>334705777</t>
+  </si>
+  <si>
+    <t>334705778</t>
+  </si>
+  <si>
+    <t>334705779</t>
   </si>
 </sst>
 </file>
@@ -3304,7 +3316,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -3354,6 +3366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3446,7 +3459,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3489,7 +3502,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,7 +3545,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3575,7 +3588,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3618,7 +3631,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3916,8 +3929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3973,10 +3986,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3995,19 +4008,25 @@
       <c r="O2" t="s">
         <v>119</v>
       </c>
+      <c r="P2" s="39" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2394650</v>
       </c>
       <c r="B3" t="s">
-        <v>976</v>
+        <v>1008</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="12">
         <v>334705780</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4015,13 +4034,16 @@
         <v>2388008</v>
       </c>
       <c r="B4" t="s">
-        <v>977</v>
+        <v>1007</v>
       </c>
       <c r="C4" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="12">
         <v>332700113</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4036,6 +4058,9 @@
       </c>
       <c r="D5" s="12">
         <v>334705780</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>1009</v>
       </c>
     </row>
   </sheetData>
@@ -4372,10 +4397,10 @@
         <v>905</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4391,7 +4416,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -4400,10 +4425,10 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -4644,10 +4669,10 @@
         <v>966</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4655,7 +4680,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>84</v>
@@ -4718,7 +4743,7 @@
         <v>93</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>87</v>
@@ -5098,19 +5123,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
+        <v>982</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>983</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>984</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="D18" s="36" t="s">
         <v>985</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="E18" s="36" t="s">
         <v>986</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>987</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>988</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>899</v>
@@ -5125,66 +5150,66 @@
     </row>
     <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
+        <v>987</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>999</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>988</v>
+      </c>
+      <c r="E19" s="36" t="s">
         <v>989</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="36" t="s">
+      <c r="F19" s="36" t="s">
         <v>990</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="G19" s="36" t="s">
         <v>991</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>992</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>993</v>
       </c>
       <c r="H19" s="36" t="s">
         <v>86</v>
       </c>
       <c r="I19" s="38" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K19" s="38" t="s">
         <v>1002</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>1004</v>
       </c>
       <c r="L19" s="36" t="s">
         <v>87</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="36" t="s">
+        <v>995</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>996</v>
+      </c>
+      <c r="F20" s="36" t="s">
         <v>997</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="G20" s="36" t="s">
         <v>998</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>999</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>1000</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -15477,7 +15502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" activeCellId="1" sqref="E9 C10"/>
     </sheetView>
   </sheetViews>
